--- a/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6_results.xlsx
@@ -871,13 +871,13 @@
         <v>500</v>
       </c>
       <c r="G3" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H3" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I3" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -1030,13 +1030,13 @@
         <v>500</v>
       </c>
       <c r="G4" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H4" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I4" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -1115,19 +1115,19 @@
         <v>2.40553807533431</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.3904683896355373</v>
+        <v>0.3504899506618299</v>
       </c>
       <c r="AK4" t="n">
         <v>-317.4603174603175</v>
       </c>
       <c r="AL4" t="n">
-        <v>-25.27865780526935</v>
+        <v>-20.35294799542626</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-29.59790459713772</v>
+        <v>-30.92630208524459</v>
       </c>
       <c r="AO4" t="n">
         <v>10.05</v>
@@ -1136,19 +1136,19 @@
         <v>7.338379446640375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>94.2105974135844</v>
+        <v>119.4720221117207</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.308133568543002</v>
+        <v>1.180712969154629</v>
       </c>
       <c r="AS4" t="n">
-        <v>-115.5063716975064</v>
+        <v>-92.92183606543938</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-136.6102916810669</v>
+        <v>-142.8059763713589</v>
       </c>
       <c r="AV4" t="n">
         <v>7.199999999999999</v>
@@ -1189,13 +1189,13 @@
         <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H5" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I5" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -1274,19 +1274,19 @@
         <v>9.798091583906563</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.886705258777165</v>
+        <v>4.656464319489616</v>
       </c>
       <c r="AK5" t="n">
         <v>-613.829162420315</v>
       </c>
       <c r="AL5" t="n">
-        <v>-259.9726103154251</v>
+        <v>-238.4694295834554</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-277.5183610797474</v>
+        <v>-329.7135629603851</v>
       </c>
       <c r="AO5" t="n">
         <v>120.7125</v>
@@ -1295,7 +1295,7 @@
         <v>41.15083636363617</v>
       </c>
       <c r="AQ5" t="n">
-        <v>90.16884303936627</v>
+        <v>105.3256963231016</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H6" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I6" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1433,19 +1433,19 @@
         <v>2.164984267800886</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.4792112054617942</v>
+        <v>0.430146757630427</v>
       </c>
       <c r="AK6" t="n">
         <v>-285.7142857142857</v>
       </c>
       <c r="AL6" t="n">
-        <v>-31.02380730646697</v>
+        <v>-24.97861799438677</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-36.32470109648724</v>
+        <v>-37.95500710461837</v>
       </c>
       <c r="AO6" t="n">
         <v>10.125</v>
@@ -1454,19 +1454,19 @@
         <v>7.338379446640375</v>
       </c>
       <c r="AQ6" t="n">
-        <v>94.2105974135844</v>
+        <v>119.4720221117207</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.31776400186104</v>
+        <v>1.18942307287021</v>
       </c>
       <c r="AS6" t="n">
-        <v>-116.3684692749974</v>
+        <v>-93.6153034284669</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-137.630149606309</v>
+        <v>-143.8720146703326</v>
       </c>
       <c r="AV6" t="n">
         <v>7.200000000000001</v>
@@ -1507,13 +1507,13 @@
         <v>500</v>
       </c>
       <c r="G7" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H7" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I7" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1592,19 +1592,19 @@
         <v>8.566704684158298</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.40107456604869</v>
+        <v>4.316985201028243</v>
       </c>
       <c r="AK7" t="n">
         <v>-298.5882626712588</v>
       </c>
       <c r="AL7" t="n">
-        <v>-144.983175702703</v>
+        <v>-140.0839634968055</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-156.8370221168538</v>
+        <v>-196.2102816015499</v>
       </c>
       <c r="AO7" t="n">
         <v>182.724</v>
@@ -1613,19 +1613,19 @@
         <v>133.1633780117905</v>
       </c>
       <c r="AQ7" t="n">
-        <v>174.3907530653731</v>
+        <v>189.0799759745517</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>14.09987189399453</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-437.6148960179226</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-1701.280357599228</v>
       </c>
       <c r="AV7" t="n">
         <v>130.21</v>
@@ -1666,13 +1666,13 @@
         <v>500</v>
       </c>
       <c r="G8" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H8" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I8" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1751,19 +1751,19 @@
         <v>2.442080423818648</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.3058144515010199</v>
+        <v>0.2715227751661655</v>
       </c>
       <c r="AK8" t="n">
         <v>-328.8256227758006</v>
       </c>
       <c r="AL8" t="n">
-        <v>-18.57362828238372</v>
+        <v>-14.83296612404012</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-24.56820046036053</v>
+        <v>-25.4869832460547</v>
       </c>
       <c r="AO8" t="n">
         <v>8.876999999999995</v>
@@ -1772,19 +1772,19 @@
         <v>6.546300395257781</v>
       </c>
       <c r="AQ8" t="n">
-        <v>93.63602992208364</v>
+        <v>118.9012665311783</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.130341422928475</v>
+        <v>1.009129803664754</v>
       </c>
       <c r="AS8" t="n">
-        <v>-93.32028709328657</v>
+        <v>-74.43561666374234</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-125.1676822588233</v>
+        <v>-129.9166061194993</v>
       </c>
       <c r="AV8" t="n">
         <v>6.379999999999997</v>
@@ -1825,13 +1825,13 @@
         <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H9" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I9" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1910,19 +1910,19 @@
         <v>7.774962086275354</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.179296598184624</v>
+        <v>4.121748348609297</v>
       </c>
       <c r="AK9" t="n">
         <v>-232.3838659734222</v>
       </c>
       <c r="AL9" t="n">
-        <v>-119.3035661161291</v>
+        <v>-116.1232378387775</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-129.7463859432364</v>
+        <v>-163.5171621688332</v>
       </c>
       <c r="AO9" t="n">
         <v>189.91275</v>
@@ -1931,19 +1931,19 @@
         <v>172.6121763547179</v>
       </c>
       <c r="AQ9" t="n">
-        <v>213.3277219036265</v>
+        <v>227.9870069719098</v>
       </c>
       <c r="AR9" t="n">
-        <v>12.72143208775214</v>
+        <v>11.8581868931357</v>
       </c>
       <c r="AS9" t="n">
-        <v>-436.0491516725202</v>
+        <v>-435.4969552475054</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-857.6650137633771</v>
+        <v>-899.6109164180937</v>
       </c>
       <c r="AV9" t="n">
         <v>135.245</v>
@@ -1984,13 +1984,13 @@
         <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H10" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I10" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -2069,19 +2069,19 @@
         <v>1.937225995850803</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.3955276098342828</v>
+        <v>0.3512293835077152</v>
       </c>
       <c r="AK10" t="n">
         <v>-295.2380952380954</v>
       </c>
       <c r="AL10" t="n">
-        <v>-28.46852935958679</v>
+        <v>-22.94755858333809</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-33.25072888386266</v>
+        <v>-34.7632374507056</v>
       </c>
       <c r="AO10" t="n">
         <v>9.997500000000004</v>
@@ -2090,19 +2090,19 @@
         <v>7.33837944664115</v>
       </c>
       <c r="AQ10" t="n">
-        <v>94.63308198771901</v>
+        <v>119.9197170397737</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.165336318723973</v>
+        <v>1.040600744114717</v>
       </c>
       <c r="AS10" t="n">
-        <v>-114.7811800238501</v>
+        <v>-92.48830820433348</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-135.2616239983139</v>
+        <v>-141.5071026278989</v>
       </c>
       <c r="AV10" t="n">
         <v>7.130000000000003</v>
@@ -2143,13 +2143,13 @@
         <v>500</v>
       </c>
       <c r="G11" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H11" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I11" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -2228,19 +2228,19 @@
         <v>5.757424017433613</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.009032258219383</v>
+        <v>2.971867360229204</v>
       </c>
       <c r="AK11" t="n">
         <v>-172.0821833435331</v>
       </c>
       <c r="AL11" t="n">
-        <v>-86.36301830390364</v>
+        <v>-84.3091491267303</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-93.90234144436867</v>
+        <v>-118.6856450740723</v>
       </c>
       <c r="AO11" t="n">
         <v>157.75125</v>
@@ -2249,19 +2249,19 @@
         <v>196.1502004030883</v>
       </c>
       <c r="AQ11" t="n">
-        <v>235.617909697635</v>
+        <v>250.2820971834475</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.360478528228727</v>
+        <v>8.26607569131458</v>
       </c>
       <c r="AS11" t="n">
-        <v>-351.4443251878248</v>
+        <v>-342.9858964108154</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-389.859849907096</v>
+        <v>-492.6912255856492</v>
       </c>
       <c r="AV11" t="n">
         <v>112.435</v>
@@ -2457,13 +2457,13 @@
         <v>500</v>
       </c>
       <c r="G13" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H13" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I13" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2616,13 +2616,13 @@
         <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H14" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I14" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -2775,13 +2775,13 @@
         <v>500</v>
       </c>
       <c r="G15" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H15" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I15" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -2860,19 +2860,19 @@
         <v>7.533999396856446</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.286763517821114</v>
+        <v>3.145659547438317</v>
       </c>
       <c r="AK15" t="n">
         <v>-325.204641421019</v>
       </c>
       <c r="AL15" t="n">
-        <v>-120.7018898730012</v>
+        <v>-110.6463376129896</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-130.1047960035963</v>
+        <v>-154.5561242976299</v>
       </c>
       <c r="AO15" t="n">
         <v>60.3</v>
@@ -2881,19 +2881,19 @@
         <v>40.94361316680629</v>
       </c>
       <c r="AQ15" t="n">
-        <v>88.79715314619642</v>
+        <v>103.4763407298331</v>
       </c>
       <c r="AR15" t="n">
-        <v>9.695724544376652</v>
+        <v>8.844313245135213</v>
       </c>
       <c r="AS15" t="n">
-        <v>-435.4240994679734</v>
+        <v>-434.9425417278205</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-665.7139865700692</v>
+        <v>-678.6870786987314</v>
       </c>
       <c r="AV15" t="n">
         <v>43</v>
@@ -2934,13 +2934,13 @@
         <v>500</v>
       </c>
       <c r="G16" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H16" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I16" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -3093,13 +3093,13 @@
         <v>500</v>
       </c>
       <c r="G17" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H17" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I17" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -3178,19 +3178,19 @@
         <v>5.164108375249101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.722468304611462</v>
+        <v>2.630630298887231</v>
       </c>
       <c r="AK17" t="n">
         <v>-179.992448072024</v>
       </c>
       <c r="AL17" t="n">
-        <v>-84.44068797176507</v>
+        <v>-79.0900246803963</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-91.54111377171408</v>
+        <v>-111.0872112157724</v>
       </c>
       <c r="AO17" t="n">
         <v>52.05</v>
@@ -3199,19 +3199,19 @@
         <v>60.52880818717772</v>
       </c>
       <c r="AQ17" t="n">
-        <v>106.486670967135</v>
+        <v>120.9635323652518</v>
       </c>
       <c r="AR17" t="n">
-        <v>7.172656454255746</v>
+        <v>6.962560554341747</v>
       </c>
       <c r="AS17" t="n">
-        <v>-320.0250652980762</v>
+        <v>-299.4198223093479</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-353.2573902741181</v>
+        <v>-428.4748325865649</v>
       </c>
       <c r="AV17" t="n">
         <v>37</v>
@@ -3252,13 +3252,13 @@
         <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H18" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I18" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -3411,13 +3411,13 @@
         <v>500</v>
       </c>
       <c r="G19" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H19" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I19" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -3496,19 +3496,19 @@
         <v>4.490529021955739</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.514854680233747</v>
+        <v>2.467666579430385</v>
       </c>
       <c r="AK19" t="n">
         <v>-156.5151722365426</v>
       </c>
       <c r="AL19" t="n">
-        <v>-82.94123505770868</v>
+        <v>-80.19196326367478</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-89.71895577947376</v>
+        <v>-112.3160518375294</v>
       </c>
       <c r="AO19" t="n">
         <v>33.75</v>
@@ -3517,19 +3517,19 @@
         <v>45.3966061403832</v>
       </c>
       <c r="AQ19" t="n">
-        <v>59.07293634902763</v>
+        <v>63.96955199937513</v>
       </c>
       <c r="AR19" t="n">
-        <v>6.70269097131989</v>
+        <v>6.591850598781718</v>
       </c>
       <c r="AS19" t="n">
-        <v>-317.5445637990197</v>
+        <v>-306.8574431469673</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>-349.2328364614367</v>
+        <v>-437.0741768768369</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3725,13 +3725,13 @@
         <v>500</v>
       </c>
       <c r="G21" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H21" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I21" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -3884,13 +3884,13 @@
         <v>500</v>
       </c>
       <c r="G22" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H22" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I22" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -4043,13 +4043,13 @@
         <v>500</v>
       </c>
       <c r="G23" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H23" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I23" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -4128,19 +4128,19 @@
         <v>7.533999396856446</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3.286763517821114</v>
+        <v>3.145659547438317</v>
       </c>
       <c r="AK23" t="n">
         <v>-325.204641421019</v>
       </c>
       <c r="AL23" t="n">
-        <v>-120.7018898730012</v>
+        <v>-110.6463376129896</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-130.1047960035963</v>
+        <v>-154.5561242976299</v>
       </c>
       <c r="AO23" t="n">
         <v>60.3</v>
@@ -4149,19 +4149,19 @@
         <v>40.94361316680629</v>
       </c>
       <c r="AQ23" t="n">
-        <v>88.79715314619642</v>
+        <v>103.4763407298331</v>
       </c>
       <c r="AR23" t="n">
-        <v>9.695724544376652</v>
+        <v>8.844313245135213</v>
       </c>
       <c r="AS23" t="n">
-        <v>-435.4240994679734</v>
+        <v>-434.9425417278205</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>-665.7139865700692</v>
+        <v>-678.6870786987314</v>
       </c>
       <c r="AV23" t="n">
         <v>43</v>
@@ -4202,13 +4202,13 @@
         <v>500</v>
       </c>
       <c r="G24" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H24" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I24" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -4361,13 +4361,13 @@
         <v>500</v>
       </c>
       <c r="G25" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H25" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I25" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -4446,19 +4446,19 @@
         <v>5.83768772854247</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2.916930326369423</v>
+        <v>2.818532463093463</v>
       </c>
       <c r="AK25" t="n">
         <v>-203.4697239075055</v>
       </c>
       <c r="AL25" t="n">
-        <v>-90.47216568403402</v>
+        <v>-84.73931215756744</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-98.07976475540795</v>
+        <v>-119.022012016899</v>
       </c>
       <c r="AO25" t="n">
         <v>57.6</v>
@@ -4467,19 +4467,19 @@
         <v>60.52880818717772</v>
       </c>
       <c r="AQ25" t="n">
-        <v>106.486670967135</v>
+        <v>120.9635323652518</v>
       </c>
       <c r="AR25" t="n">
-        <v>7.861564107100293</v>
+        <v>7.635235345227573</v>
       </c>
       <c r="AS25" t="n">
-        <v>-354.3175752781168</v>
+        <v>-331.484960878521</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>-391.2366942718143</v>
+        <v>-474.516132290689</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
@@ -4520,13 +4520,13 @@
         <v>500</v>
       </c>
       <c r="G26" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H26" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I26" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -4679,13 +4679,13 @@
         <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H27" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I27" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -4993,13 +4993,13 @@
         <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H29" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I29" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -5152,13 +5152,13 @@
         <v>500</v>
       </c>
       <c r="G30" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H30" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I30" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -5258,19 +5258,19 @@
         <v>7.338379446640375</v>
       </c>
       <c r="AQ30" t="n">
-        <v>94.2105974135844</v>
+        <v>119.4720221117207</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.187586799359097</v>
+        <v>1.071708982485483</v>
       </c>
       <c r="AS30" t="n">
-        <v>-104.7302896957538</v>
+        <v>-84.25351902254066</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>-123.8625468419063</v>
+        <v>-129.480905365736</v>
       </c>
       <c r="AV30" t="n">
         <v>6.75</v>
@@ -5311,13 +5311,13 @@
         <v>500</v>
       </c>
       <c r="G31" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H31" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I31" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -5470,13 +5470,13 @@
         <v>500</v>
       </c>
       <c r="G32" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H32" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I32" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -5629,13 +5629,13 @@
         <v>500</v>
       </c>
       <c r="G33" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H33" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I33" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -5788,13 +5788,13 @@
         <v>500</v>
       </c>
       <c r="G34" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H34" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I34" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -5873,19 +5873,19 @@
         <v>2.508976212573711</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.3702350276271496</v>
+        <v>0.3323281986729898</v>
       </c>
       <c r="AK34" t="n">
         <v>-331.111111111111</v>
       </c>
       <c r="AL34" t="n">
-        <v>-23.96876371899632</v>
+        <v>-19.29829523566325</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>-28.06419499528605</v>
+        <v>-29.32375734082736</v>
       </c>
       <c r="AO34" t="n">
         <v>10.16925</v>
@@ -5894,19 +5894,19 @@
         <v>7.338379446640375</v>
       </c>
       <c r="AQ34" t="n">
-        <v>94.2105974135844</v>
+        <v>119.4720221117207</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.323445031654915</v>
+        <v>1.19456132342408</v>
       </c>
       <c r="AS34" t="n">
-        <v>-116.8771076116501</v>
+        <v>-94.02444931090659</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>-138.2318684505966</v>
+        <v>-144.5009795367526</v>
       </c>
       <c r="AV34" t="n">
         <v>7.301</v>
@@ -5947,13 +5947,13 @@
         <v>500</v>
       </c>
       <c r="G35" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H35" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I35" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -6106,13 +6106,13 @@
         <v>500</v>
       </c>
       <c r="G36" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H36" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I36" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -6265,13 +6265,13 @@
         <v>500</v>
       </c>
       <c r="G37" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H37" t="n">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I37" t="n">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>

--- a/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6_results.xlsx
@@ -886,10 +886,10 @@
         <v>0.215</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00154</v>
+        <v>0.0005503999999999999</v>
       </c>
       <c r="N3" t="n">
         <v>0.04</v>
@@ -907,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
         <v>26</v>
@@ -953,55 +953,55 @@
         <v>14.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.041476119760169</v>
+        <v>6.161918061284176</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.616590482647134</v>
+        <v>1.943673685331171</v>
       </c>
       <c r="AK3" t="n">
-        <v>-140.8636550128884</v>
+        <v>-386.0307867170015</v>
       </c>
       <c r="AL3" t="n">
-        <v>-56.34546177522824</v>
+        <v>-100.6959407649963</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-139.1885823744077</v>
       </c>
       <c r="AO3" t="n">
         <v>70.2</v>
       </c>
       <c r="AP3" t="n">
-        <v>121.0576163743554</v>
+        <v>44.23714909090887</v>
       </c>
       <c r="AQ3" t="n">
-        <v>121.0576163743554</v>
+        <v>108.2237823686905</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.669329228018511</v>
+        <v>7.093623375943786</v>
       </c>
       <c r="AS3" t="n">
-        <v>-280.6140421679962</v>
+        <v>-435.3945622820762</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-839.356139957524</v>
       </c>
       <c r="AV3" t="n">
         <v>50.4</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.142367729400008</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-201.2823314863546</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>121.0576163743554</v>
+        <v>44.23714909090887</v>
       </c>
     </row>
     <row r="4">
@@ -1204,10 +1204,10 @@
         <v>0.215</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0005120000000000001</v>
+        <v>0.0017325</v>
       </c>
       <c r="N5" t="n">
         <v>0.04</v>
@@ -1271,55 +1271,55 @@
         <v>32.55</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.798091583906563</v>
+        <v>5.313792675980963</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.656464319489616</v>
+        <v>2.974909154091076</v>
       </c>
       <c r="AK5" t="n">
-        <v>-613.829162420315</v>
+        <v>-185.2096204799089</v>
       </c>
       <c r="AL5" t="n">
-        <v>-238.4694295834554</v>
+        <v>-96.67586682343013</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-329.7135629603851</v>
+        <v>-135.4032402707992</v>
       </c>
       <c r="AO5" t="n">
         <v>120.7125</v>
       </c>
       <c r="AP5" t="n">
-        <v>41.15083636363617</v>
+        <v>136.1898184211496</v>
       </c>
       <c r="AQ5" t="n">
-        <v>105.3256963231016</v>
+        <v>191.9086559981254</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>7.735410665158958</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-366.1633666870147</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-521.793250243221</v>
       </c>
       <c r="AV5" t="n">
         <v>85.8</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>6.124985854109921</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>-304.9527121681818</v>
       </c>
       <c r="AY5" t="n">
-        <v>41.15083636363617</v>
+        <v>136.1898184211496</v>
       </c>
     </row>
     <row r="6">
@@ -1522,10 +1522,10 @@
         <v>0.215</v>
       </c>
       <c r="L7" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001694</v>
+        <v>0.0025137</v>
       </c>
       <c r="N7" t="n">
         <v>0.04</v>
@@ -1589,55 +1589,55 @@
         <v>46.27</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.566704684158298</v>
+        <v>6.785565763475597</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.316985201028243</v>
+        <v>3.525176714209665</v>
       </c>
       <c r="AK7" t="n">
-        <v>-298.5882626712588</v>
+        <v>-202.8120507130034</v>
       </c>
       <c r="AL7" t="n">
-        <v>-140.0839634968055</v>
+        <v>-99.90215026374965</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-196.2102816015499</v>
+        <v>-140.6424387561985</v>
       </c>
       <c r="AO7" t="n">
         <v>182.724</v>
       </c>
       <c r="AP7" t="n">
-        <v>133.1633780117905</v>
+        <v>192.2271963950269</v>
       </c>
       <c r="AQ7" t="n">
-        <v>189.0799759745517</v>
+        <v>246.5664667935177</v>
       </c>
       <c r="AR7" t="n">
-        <v>14.09987189399453</v>
+        <v>9.560688223968702</v>
       </c>
       <c r="AS7" t="n">
-        <v>-437.6148960179226</v>
+        <v>-405.0558882537657</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-1701.280357599228</v>
+        <v>-582.3062591978357</v>
       </c>
       <c r="AV7" t="n">
         <v>130.21</v>
       </c>
       <c r="AW7" t="n">
-        <v>16.66666666666667</v>
+        <v>7.474989709501856</v>
       </c>
       <c r="AX7" t="n">
-        <v>-454.1535481540234</v>
+        <v>-322.6307120025996</v>
       </c>
       <c r="AY7" t="n">
-        <v>133.1633780117905</v>
+        <v>192.2271963950269</v>
       </c>
     </row>
     <row r="8">
@@ -1840,10 +1840,10 @@
         <v>0.215</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>5.45</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0022572</v>
+        <v>0.00279585</v>
       </c>
       <c r="N9" t="n">
         <v>0.04</v>
@@ -1907,55 +1907,55 @@
         <v>48.88</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.774962086275354</v>
+        <v>6.277033610937905</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.121748348609297</v>
+        <v>3.36687493219618</v>
       </c>
       <c r="AK9" t="n">
-        <v>-232.3838659734222</v>
+        <v>-187.6126624372583</v>
       </c>
       <c r="AL9" t="n">
-        <v>-116.1232378387775</v>
+        <v>-95.91858280062259</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-163.5171621688332</v>
+        <v>-135.0060291129361</v>
       </c>
       <c r="AO9" t="n">
         <v>189.91275</v>
       </c>
       <c r="AP9" t="n">
-        <v>172.6121763547179</v>
+        <v>213.8037184393665</v>
       </c>
       <c r="AQ9" t="n">
-        <v>227.9870069719098</v>
+        <v>267.0015961122987</v>
       </c>
       <c r="AR9" t="n">
-        <v>11.8581868931357</v>
+        <v>9.059431819274955</v>
       </c>
       <c r="AS9" t="n">
-        <v>-435.4969552475054</v>
+        <v>-382.4568275402141</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-899.6109164180937</v>
+        <v>-549.4885499692449</v>
       </c>
       <c r="AV9" t="n">
         <v>135.245</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.516758520398723</v>
+        <v>7.022710764468481</v>
       </c>
       <c r="AX9" t="n">
-        <v>-373.5556727913245</v>
+        <v>-301.1793046214071</v>
       </c>
       <c r="AY9" t="n">
-        <v>172.6121763547179</v>
+        <v>213.8037184393665</v>
       </c>
     </row>
     <row r="10">
@@ -2158,10 +2158,10 @@
         <v>0.215</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>5.45</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002565</v>
+        <v>0.00279585</v>
       </c>
       <c r="N11" t="n">
         <v>0.04</v>
@@ -2225,55 +2225,55 @@
         <v>39.76</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.757424017433613</v>
+        <v>5.282040382966614</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.971867360229204</v>
+        <v>2.738685501311787</v>
       </c>
       <c r="AK11" t="n">
-        <v>-172.0821833435331</v>
+        <v>-157.8735627004891</v>
       </c>
       <c r="AL11" t="n">
-        <v>-84.3091491267303</v>
+        <v>-78.02215327644748</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-118.6856450740723</v>
+        <v>-109.8166881655143</v>
       </c>
       <c r="AO11" t="n">
         <v>157.75125</v>
       </c>
       <c r="AP11" t="n">
-        <v>196.1502004030883</v>
+        <v>213.8037184393665</v>
       </c>
       <c r="AQ11" t="n">
-        <v>250.2820971834475</v>
+        <v>267.0015961122987</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.26607569131458</v>
+        <v>7.683601179280207</v>
       </c>
       <c r="AS11" t="n">
-        <v>-342.9858964108154</v>
+        <v>-317.25389861193</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-492.6912255856492</v>
+        <v>-455.4823693943369</v>
       </c>
       <c r="AV11" t="n">
         <v>112.435</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.413576808022013</v>
+        <v>5.919900156264702</v>
       </c>
       <c r="AX11" t="n">
-        <v>-272.7895894004354</v>
+        <v>-250.1736489682405</v>
       </c>
       <c r="AY11" t="n">
-        <v>196.1502004030883</v>
+        <v>213.8037184393665</v>
       </c>
     </row>
     <row r="12">
